--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bennett/Nextcloud/coronatime/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA790F9-02A2-E94C-B90C-9307730891C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1DE6A-1E4B-41C9-94C2-7BA7F3436E75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14340" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
+    <workbookView xWindow="-25425" yWindow="150" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -612,85 +610,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCE45E-C7F1-1B41-A38F-59882ED4EE5A}">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BR22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C11"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.375" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="6.125" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="8.625" customWidth="1"/>
     <col min="21" max="21" width="6.5" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.375" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="24" max="24" width="10.5" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.1640625" customWidth="1"/>
-    <col min="28" max="28" width="3.83203125" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" customWidth="1"/>
-    <col min="31" max="31" width="7.1640625" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" customWidth="1"/>
-    <col min="33" max="33" width="6.6640625" customWidth="1"/>
-    <col min="34" max="34" width="10.33203125" customWidth="1"/>
+    <col min="25" max="25" width="7.375" customWidth="1"/>
+    <col min="26" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="27" width="3.125" customWidth="1"/>
+    <col min="28" max="28" width="3.875" customWidth="1"/>
+    <col min="29" max="29" width="6.875" customWidth="1"/>
+    <col min="30" max="30" width="5.625" customWidth="1"/>
+    <col min="31" max="31" width="7.125" customWidth="1"/>
+    <col min="32" max="32" width="5.625" customWidth="1"/>
+    <col min="33" max="33" width="6.625" customWidth="1"/>
+    <col min="34" max="34" width="10.375" customWidth="1"/>
     <col min="35" max="35" width="6.5" customWidth="1"/>
-    <col min="36" max="36" width="8.1640625" customWidth="1"/>
+    <col min="36" max="36" width="8.125" customWidth="1"/>
     <col min="37" max="37" width="6.5" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" customWidth="1"/>
+    <col min="38" max="38" width="10.625" customWidth="1"/>
     <col min="39" max="39" width="8.5" customWidth="1"/>
-    <col min="40" max="40" width="8.33203125" customWidth="1"/>
-    <col min="41" max="41" width="7.33203125" customWidth="1"/>
+    <col min="40" max="40" width="8.375" customWidth="1"/>
+    <col min="41" max="41" width="7.375" customWidth="1"/>
     <col min="42" max="42" width="6" customWidth="1"/>
-    <col min="43" max="43" width="6.83203125" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" customWidth="1"/>
-    <col min="45" max="45" width="7.1640625" customWidth="1"/>
+    <col min="43" max="43" width="6.875" customWidth="1"/>
+    <col min="44" max="44" width="8.375" customWidth="1"/>
+    <col min="45" max="45" width="7.125" customWidth="1"/>
     <col min="46" max="46" width="6.5" customWidth="1"/>
     <col min="47" max="47" width="6" customWidth="1"/>
-    <col min="48" max="48" width="6.83203125" customWidth="1"/>
-    <col min="49" max="49" width="11.1640625" customWidth="1"/>
-    <col min="50" max="50" width="7.6640625" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" customWidth="1"/>
-    <col min="52" max="52" width="14.1640625" customWidth="1"/>
+    <col min="48" max="48" width="6.875" customWidth="1"/>
+    <col min="49" max="49" width="11.125" customWidth="1"/>
+    <col min="50" max="50" width="7.625" customWidth="1"/>
+    <col min="51" max="51" width="11.625" customWidth="1"/>
+    <col min="52" max="52" width="14.125" customWidth="1"/>
     <col min="53" max="53" width="5" customWidth="1"/>
-    <col min="54" max="54" width="10.6640625" customWidth="1"/>
-    <col min="55" max="55" width="3.83203125" customWidth="1"/>
-    <col min="56" max="56" width="5.6640625" customWidth="1"/>
-    <col min="57" max="57" width="8.33203125" customWidth="1"/>
-    <col min="58" max="58" width="6.33203125" customWidth="1"/>
-    <col min="59" max="59" width="8.6640625" customWidth="1"/>
+    <col min="54" max="54" width="10.625" customWidth="1"/>
+    <col min="55" max="55" width="3.875" customWidth="1"/>
+    <col min="56" max="56" width="5.625" customWidth="1"/>
+    <col min="57" max="57" width="8.375" customWidth="1"/>
+    <col min="58" max="58" width="6.375" customWidth="1"/>
+    <col min="59" max="59" width="8.625" customWidth="1"/>
     <col min="60" max="60" width="7" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" customWidth="1"/>
-    <col min="62" max="62" width="5.33203125" customWidth="1"/>
+    <col min="61" max="61" width="11.375" customWidth="1"/>
+    <col min="62" max="62" width="5.375" customWidth="1"/>
     <col min="63" max="63" width="5.5" customWidth="1"/>
-    <col min="64" max="64" width="7.83203125" customWidth="1"/>
-    <col min="65" max="65" width="6.6640625" customWidth="1"/>
+    <col min="64" max="64" width="7.875" customWidth="1"/>
+    <col min="65" max="65" width="6.625" customWidth="1"/>
     <col min="66" max="66" width="10.5" customWidth="1"/>
     <col min="67" max="67" width="6.5" customWidth="1"/>
     <col min="68" max="68" width="13" customWidth="1"/>
-    <col min="69" max="69" width="8.6640625" customWidth="1"/>
+    <col min="69" max="69" width="8.625" customWidth="1"/>
     <col min="70" max="70" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
@@ -899,7 +897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43895</v>
       </c>
@@ -909,7 +907,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43896</v>
       </c>
@@ -928,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43897</v>
       </c>
@@ -950,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43898</v>
       </c>
@@ -972,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43899</v>
       </c>
@@ -997,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43900</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43901</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -1139,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43904</v>
       </c>
@@ -1188,20 +1186,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43905</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>24</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>6</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43906</v>
       </c>
@@ -1209,12 +1249,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="e">
+      <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43907</v>
       </c>
@@ -1227,7 +1267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43908</v>
       </c>
@@ -1240,7 +1280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43909</v>
       </c>
@@ -1253,17 +1293,50 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43910</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="S17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f>S17*1.45</f>
+        <v>91.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f t="shared" ref="S19:S22" si="4">S18*1.45</f>
+        <v>132.45749999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>192.06337499999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>278.49189374999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>403.81324593749997</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1DE6A-1E4B-41C9-94C2-7BA7F3436E75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEBF176-B011-4B71-BEFD-8B47F74AC143}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25425" yWindow="150" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1247,11 +1247,53 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.20634920634920634</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>8</v>
+      </c>
+      <c r="AW13">
+        <v>30</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>8</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -1262,9 +1304,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="e">
+      <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -1299,44 +1341,44 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S17">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S18">
-        <f>S17*1.45</f>
-        <v>91.35</v>
+        <f>S17*1.23</f>
+        <v>87.33</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S19">
-        <f t="shared" ref="S19:S22" si="4">S18*1.45</f>
-        <v>132.45749999999998</v>
+        <f t="shared" ref="S19:S22" si="4">S18*1.23</f>
+        <v>107.41589999999999</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S20">
         <f t="shared" si="4"/>
-        <v>192.06337499999998</v>
+        <v>132.121557</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S21">
         <f t="shared" si="4"/>
-        <v>278.49189374999997</v>
+        <v>162.50951511</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S22">
         <f t="shared" si="4"/>
-        <v>403.81324593749997</v>
+        <v>199.88670358529998</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEBF176-B011-4B71-BEFD-8B47F74AC143}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33681303-7C2F-4980-8F3A-2124CB92EC04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="150" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,12 +289,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1302,11 +1303,56 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <v>9</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>8</v>
+      </c>
+      <c r="AW14">
+        <v>32</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>10</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BN14">
+        <v>2</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -1317,9 +1363,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="e">
+      <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -1335,50 +1381,54 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43910</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S18">
-        <f>S17*1.23</f>
-        <v>87.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <f>S17*T18</f>
+        <v>121.91784425603015</v>
+      </c>
+      <c r="T18" s="5">
+        <f>AVERAGE(C12:C14)+1</f>
+        <v>1.2699775443336474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S19">
-        <f t="shared" ref="S19:S22" si="4">S18*1.23</f>
-        <v>107.41589999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <f>S18*T18</f>
+        <v>154.83292445872524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S20">
-        <f t="shared" si="4"/>
-        <v>132.121557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <f>S19*T18</f>
+        <v>196.63433718608903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S21">
-        <f t="shared" si="4"/>
-        <v>162.50951511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <f>S20*T18</f>
+        <v>249.72119267126374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S22">
-        <f t="shared" si="4"/>
-        <v>199.88670358529998</v>
+        <f>S21*T18</f>
+        <v>317.14030703672114</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33681303-7C2F-4980-8F3A-2124CB92EC04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B71AD-7621-45A4-A7E5-1EFB9A79BCCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
@@ -1361,11 +1361,65 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>9</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>14</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>7</v>
+      </c>
+      <c r="AW15">
+        <v>42</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>17</v>
+      </c>
+      <c r="BC15">
+        <v>2</v>
+      </c>
+      <c r="BN15">
+        <v>2</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BR15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
@@ -1376,9 +1430,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="e">
+      <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1387,48 +1441,48 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S17">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S18">
         <f>S17*T18</f>
-        <v>121.91784425603015</v>
+        <v>170.90162037037038</v>
       </c>
       <c r="T18" s="5">
-        <f>AVERAGE(C12:C14)+1</f>
-        <v>1.2699775443336474</v>
+        <f>AVERAGE(C13:C15)+1</f>
+        <v>1.284974589250905</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S19">
         <f>S18*T18</f>
-        <v>154.83292445872524</v>
+        <v>219.60423943773077</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S20">
         <f>S19*T18</f>
-        <v>196.63433718608903</v>
+        <v>282.1858673692555</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S21">
         <f>S20*T18</f>
-        <v>249.72119267126374</v>
+        <v>362.60166901521944</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S22">
         <f>S21*T18</f>
-        <v>317.14030703672114</v>
+        <v>465.93393070452424</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B71AD-7621-45A4-A7E5-1EFB9A79BCCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E23A9-F9D7-4EFB-BD15-3940FC941E9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1428,11 +1428,77 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.39097744360902253</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>11</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+      <c r="AL16">
+        <v>2</v>
+      </c>
+      <c r="AM16">
+        <v>2</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>15</v>
+      </c>
+      <c r="AW16">
+        <v>47</v>
+      </c>
+      <c r="AY16">
+        <v>5</v>
+      </c>
+      <c r="BB16">
+        <v>33</v>
+      </c>
+      <c r="BC16">
+        <v>3</v>
+      </c>
+      <c r="BN16">
+        <v>3</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>2</v>
+      </c>
+      <c r="BR16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1441,48 +1507,48 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="C17" s="4" t="e">
+        <v>185</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S18">
         <f>S17*T18</f>
-        <v>170.90162037037038</v>
+        <v>249.10570697577276</v>
       </c>
       <c r="T18" s="5">
-        <f>AVERAGE(C13:C15)+1</f>
-        <v>1.284974589250905</v>
+        <f>AVERAGE(C14:C16)+1</f>
+        <v>1.346517335004177</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S19">
         <f>S18*T18</f>
-        <v>219.60423943773077</v>
+        <v>335.42515269134896</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S20">
         <f>S19*T18</f>
-        <v>282.1858673692555</v>
+        <v>451.65578269532438</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S21">
         <f>S20*T18</f>
-        <v>362.60166901521944</v>
+        <v>608.16234085413384</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S22">
         <f>S21*T18</f>
-        <v>465.93393070452424</v>
+        <v>818.90113445681027</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E23A9-F9D7-4EFB-BD15-3940FC941E9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3485B0E-3FA2-4564-A69A-F29C91886674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
+    <workbookView xWindow="28560" yWindow="2880" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCE45E-C7F1-1B41-A38F-59882ED4EE5A}">
-  <dimension ref="A1:BR22"/>
+  <dimension ref="A1:BR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1501,54 +1501,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43910</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S18">
-        <f>S17*T18</f>
-        <v>249.10570697577276</v>
-      </c>
-      <c r="T18" s="5">
-        <f>AVERAGE(C14:C16)+1</f>
-        <v>1.346517335004177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S19">
-        <f>S18*T18</f>
-        <v>335.42515269134896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S20">
-        <f>S19*T18</f>
-        <v>451.65578269532438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S21">
-        <f>S20*T18</f>
-        <v>608.16234085413384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S22">
-        <f>S21*T18</f>
-        <v>818.90113445681027</v>
+        <v>0.44864864864864867</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Z17">
+        <v>23</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>4</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>19</v>
+      </c>
+      <c r="AW17">
+        <v>59</v>
+      </c>
+      <c r="AY17">
+        <v>10</v>
+      </c>
+      <c r="BB17">
+        <v>42</v>
+      </c>
+      <c r="BC17">
+        <v>2</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BN17">
+        <v>3</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>4</v>
+      </c>
+      <c r="BR17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <f>S25*T26</f>
+        <v>377.43715313057419</v>
+      </c>
+      <c r="T26" s="5">
+        <f>AVERAGE(C15:C17)+1</f>
+        <v>1.4083475863081127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f>S26*T26</f>
+        <v>531.56270359444966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <f>S27*T26</f>
+        <v>748.62505057865792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <f>S28*T26</f>
+        <v>1054.3242830322417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f>S29*T26</f>
+        <v>1484.8550591944891</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3485B0E-3FA2-4564-A69A-F29C91886674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEDE04A-8203-4B89-8478-3150D1D80C31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="2880" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
+    <workbookView xWindow="-28800" yWindow="630" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
+      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1143,11 +1143,11 @@
         <v>43904</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ref="B11:B17" si="2">SUM(D11:BR11)</f>
+        <f t="shared" ref="B11:B22" si="2">SUM(D11:BR11)</f>
         <v>47</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ref="C11:C17" si="3">(B11-B10)/B10</f>
+        <f t="shared" ref="C11:C22" si="3">(B11-B10)/B10</f>
         <v>0.14634146341463414</v>
       </c>
       <c r="E11">
@@ -1592,43 +1592,192 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.38432835820895522</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>19</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Z18">
+        <v>33</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
+      </c>
+      <c r="AM18">
+        <v>4</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>13</v>
+      </c>
+      <c r="AQ18">
+        <v>6</v>
+      </c>
+      <c r="AV18">
+        <v>25</v>
+      </c>
+      <c r="AW18">
+        <v>71</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>17</v>
+      </c>
+      <c r="BB18">
+        <v>69</v>
+      </c>
+      <c r="BC18">
+        <v>2</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BN18">
+        <v>5</v>
+      </c>
+      <c r="BO18">
+        <v>1</v>
+      </c>
+      <c r="BP18">
+        <v>4</v>
+      </c>
+      <c r="BR18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S25">
-        <v>268</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S26">
         <f>S25*T26</f>
-        <v>377.43715313057419</v>
+        <v>522.36236704103953</v>
       </c>
       <c r="T26" s="5">
-        <f>AVERAGE(C15:C17)+1</f>
-        <v>1.4083475863081127</v>
+        <f>AVERAGE(C16:C18)+1</f>
+        <v>1.4079848168222089</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S27">
         <f>S26*T26</f>
-        <v>531.56270359444966</v>
+        <v>735.47828167309353</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S28">
         <f>S27*T26</f>
-        <v>748.62505057865792</v>
+        <v>1035.5422536982035</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S29">
         <f>S28*T26</f>
-        <v>1054.3242830322417</v>
+        <v>1458.0277703849224</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S30">
         <f>S29*T26</f>
-        <v>1484.8550591944891</v>
+        <v>2052.8809632071088</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEDE04A-8203-4B89-8478-3150D1D80C31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01D481-7525-42B0-BA8C-F7F6611F44B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="630" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
+    <workbookView xWindow="-26550" yWindow="4275" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:BR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -1694,12 +1694,11 @@
         <v>43912</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.29110512129380056</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -1708,11 +1707,113 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="e">
+        <v>644</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.3444676409185804</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>43</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>40</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>12</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>54</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>7</v>
+      </c>
+      <c r="AM20">
+        <v>5</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>25</v>
+      </c>
+      <c r="AQ20">
+        <v>10</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>43</v>
+      </c>
+      <c r="AW20">
+        <v>129</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>23</v>
+      </c>
+      <c r="BB20">
+        <v>128</v>
+      </c>
+      <c r="BC20">
+        <v>3</v>
+      </c>
+      <c r="BD20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>3</v>
+      </c>
+      <c r="BN20">
+        <v>9</v>
+      </c>
+      <c r="BO20">
+        <v>3</v>
+      </c>
+      <c r="BP20">
+        <v>6</v>
+      </c>
+      <c r="BR20">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -1723,9 +1824,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C21" s="4" t="e">
+      <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -1743,41 +1844,41 @@
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S25">
-        <v>371</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S26">
         <f>S25*T26</f>
-        <v>522.36236704103953</v>
+        <v>862.93877385044675</v>
       </c>
       <c r="T26" s="5">
-        <f>AVERAGE(C16:C18)+1</f>
-        <v>1.4079848168222089</v>
+        <f>AVERAGE(C18:C20)+1</f>
+        <v>1.3399670401404453</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S27">
         <f>S26*T26</f>
-        <v>735.47828167309353</v>
+        <v>1156.3095146188082</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S28">
         <f>S27*T26</f>
-        <v>1035.5422536982035</v>
+        <v>1549.4166377899994</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S29">
         <f>S28*T26</f>
-        <v>1458.0277703849224</v>
+        <v>2076.1672260838259</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S30">
         <f>S29*T26</f>
-        <v>2052.8809632071088</v>
+        <v>2781.9956527721429</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett Warner\Documents\GitHub\CoronaTime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bennett/Downloads/CoronaTime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01D481-7525-42B0-BA8C-F7F6611F44B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8156F87A-C8EE-0A44-BCB2-FE0117FD7DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26550" yWindow="4275" windowWidth="23025" windowHeight="15570" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" xr2:uid="{41173311-FEDE-3A4C-B2EB-6D27C14A53B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Adams County</t>
   </si>
@@ -238,6 +240,12 @@
   </si>
   <si>
     <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Guess Backport</t>
+  </si>
+  <si>
+    <t>Guess Deviation</t>
   </si>
 </sst>
 </file>
@@ -611,304 +619,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCE45E-C7F1-1B41-A38F-59882ED4EE5A}">
-  <dimension ref="A1:BR30"/>
+  <dimension ref="A1:BS40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.375" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="4.375" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="5.375" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
-    <col min="14" max="14" width="7.375" customWidth="1"/>
-    <col min="15" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="16" width="6.125" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
-    <col min="19" max="19" width="6.375" customWidth="1"/>
-    <col min="20" max="20" width="8.625" customWidth="1"/>
-    <col min="21" max="21" width="6.5" customWidth="1"/>
-    <col min="22" max="22" width="8.375" customWidth="1"/>
-    <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="10.5" customWidth="1"/>
-    <col min="25" max="25" width="7.375" customWidth="1"/>
-    <col min="26" max="26" width="8.625" customWidth="1"/>
-    <col min="27" max="27" width="3.125" customWidth="1"/>
-    <col min="28" max="28" width="3.875" customWidth="1"/>
-    <col min="29" max="29" width="6.875" customWidth="1"/>
-    <col min="30" max="30" width="5.625" customWidth="1"/>
-    <col min="31" max="31" width="7.125" customWidth="1"/>
-    <col min="32" max="32" width="5.625" customWidth="1"/>
-    <col min="33" max="33" width="6.625" customWidth="1"/>
-    <col min="34" max="34" width="10.375" customWidth="1"/>
-    <col min="35" max="35" width="6.5" customWidth="1"/>
-    <col min="36" max="36" width="8.125" customWidth="1"/>
-    <col min="37" max="37" width="6.5" customWidth="1"/>
-    <col min="38" max="38" width="10.625" customWidth="1"/>
-    <col min="39" max="39" width="8.5" customWidth="1"/>
-    <col min="40" max="40" width="8.375" customWidth="1"/>
-    <col min="41" max="41" width="7.375" customWidth="1"/>
-    <col min="42" max="42" width="6" customWidth="1"/>
-    <col min="43" max="43" width="6.875" customWidth="1"/>
-    <col min="44" max="44" width="8.375" customWidth="1"/>
-    <col min="45" max="45" width="7.125" customWidth="1"/>
-    <col min="46" max="46" width="6.5" customWidth="1"/>
-    <col min="47" max="47" width="6" customWidth="1"/>
-    <col min="48" max="48" width="6.875" customWidth="1"/>
-    <col min="49" max="49" width="11.125" customWidth="1"/>
-    <col min="50" max="50" width="7.625" customWidth="1"/>
-    <col min="51" max="51" width="11.625" customWidth="1"/>
-    <col min="52" max="52" width="14.125" customWidth="1"/>
-    <col min="53" max="53" width="5" customWidth="1"/>
-    <col min="54" max="54" width="10.625" customWidth="1"/>
-    <col min="55" max="55" width="3.875" customWidth="1"/>
-    <col min="56" max="56" width="5.625" customWidth="1"/>
-    <col min="57" max="57" width="8.375" customWidth="1"/>
-    <col min="58" max="58" width="6.375" customWidth="1"/>
-    <col min="59" max="59" width="8.625" customWidth="1"/>
-    <col min="60" max="60" width="7" customWidth="1"/>
-    <col min="61" max="61" width="11.375" customWidth="1"/>
-    <col min="62" max="62" width="5.375" customWidth="1"/>
-    <col min="63" max="63" width="5.5" customWidth="1"/>
-    <col min="64" max="64" width="7.875" customWidth="1"/>
-    <col min="65" max="65" width="6.625" customWidth="1"/>
-    <col min="66" max="66" width="10.5" customWidth="1"/>
-    <col min="67" max="67" width="6.5" customWidth="1"/>
-    <col min="68" max="68" width="13" customWidth="1"/>
-    <col min="69" max="69" width="8.625" customWidth="1"/>
-    <col min="70" max="70" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.5" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="25" max="25" width="10.5" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
+    <col min="28" max="28" width="3.1640625" customWidth="1"/>
+    <col min="29" max="29" width="3.83203125" customWidth="1"/>
+    <col min="30" max="30" width="6.83203125" customWidth="1"/>
+    <col min="31" max="31" width="5.6640625" customWidth="1"/>
+    <col min="32" max="32" width="7.1640625" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" customWidth="1"/>
+    <col min="36" max="36" width="6.5" customWidth="1"/>
+    <col min="37" max="37" width="8.1640625" customWidth="1"/>
+    <col min="38" max="38" width="6.5" customWidth="1"/>
+    <col min="39" max="39" width="10.6640625" customWidth="1"/>
+    <col min="40" max="40" width="8.5" customWidth="1"/>
+    <col min="41" max="41" width="8.33203125" customWidth="1"/>
+    <col min="42" max="42" width="7.33203125" customWidth="1"/>
+    <col min="43" max="43" width="6" customWidth="1"/>
+    <col min="44" max="44" width="6.83203125" customWidth="1"/>
+    <col min="45" max="45" width="8.33203125" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" customWidth="1"/>
+    <col min="47" max="47" width="6.5" customWidth="1"/>
+    <col min="48" max="48" width="6" customWidth="1"/>
+    <col min="49" max="49" width="6.83203125" customWidth="1"/>
+    <col min="50" max="50" width="11.1640625" customWidth="1"/>
+    <col min="51" max="51" width="7.6640625" customWidth="1"/>
+    <col min="52" max="52" width="11.6640625" customWidth="1"/>
+    <col min="53" max="53" width="14.1640625" customWidth="1"/>
+    <col min="54" max="54" width="5" customWidth="1"/>
+    <col min="55" max="55" width="10.6640625" customWidth="1"/>
+    <col min="56" max="56" width="3.83203125" customWidth="1"/>
+    <col min="57" max="57" width="5.6640625" customWidth="1"/>
+    <col min="58" max="58" width="8.33203125" customWidth="1"/>
+    <col min="59" max="59" width="6.33203125" customWidth="1"/>
+    <col min="60" max="60" width="8.6640625" customWidth="1"/>
+    <col min="61" max="61" width="7" customWidth="1"/>
+    <col min="62" max="62" width="11.33203125" customWidth="1"/>
+    <col min="63" max="63" width="5.33203125" customWidth="1"/>
+    <col min="64" max="64" width="5.5" customWidth="1"/>
+    <col min="65" max="65" width="7.83203125" customWidth="1"/>
+    <col min="66" max="66" width="6.6640625" customWidth="1"/>
+    <col min="67" max="67" width="10.5" customWidth="1"/>
+    <col min="68" max="68" width="6.5" customWidth="1"/>
+    <col min="69" max="69" width="13" customWidth="1"/>
+    <col min="70" max="70" width="8.6640625" customWidth="1"/>
+    <col min="71" max="71" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>59</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>60</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>61</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>62</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>63</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>64</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>65</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43895</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B10" si="0">SUM(D2:BR2)</f>
+        <f t="shared" ref="B2:B10" si="0">SUM(E2:BS2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43896</v>
       </c>
@@ -916,18 +928,19 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="e">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="e">
         <f>(B3-B2)/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="BO3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43897</v>
       </c>
@@ -935,21 +948,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" ref="C4:C10" si="1">(B4-B3)/B3</f>
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>2</v>
-      </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D10" si="1">(B4-B3)/B3</f>
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43898</v>
       </c>
@@ -957,21 +971,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
         <v>4</v>
       </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BP5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43899</v>
       </c>
@@ -979,24 +994,28 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
+        <f>B6*(1+(AVERAGE(D4:D6)))</f>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
+      <c r="AA6">
         <v>1</v>
       </c>
       <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
         <v>7</v>
       </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BP6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43900</v>
       </c>
@@ -1004,27 +1023,31 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:C20" si="2">B7*(1+(AVERAGE(D5:D7)))</f>
+        <v>17.466666666666665</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
+      <c r="AA7">
         <v>1</v>
       </c>
       <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
         <v>8</v>
       </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43901</v>
       </c>
@@ -1032,30 +1055,34 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>22.4</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
-        <v>2</v>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
       </c>
       <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
         <v>9</v>
       </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
-      <c r="BO8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -1063,36 +1090,40 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>28.661111111111111</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AV9">
-        <v>2</v>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
       </c>
       <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
         <v>13</v>
       </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="BB9">
+      <c r="AZ9">
         <v>1</v>
       </c>
       <c r="BC9">
         <v>1</v>
       </c>
-      <c r="BO9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -1100,372 +1131,397 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>62.483585858585847</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>0.86363636363636365</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="X10">
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>3</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>6</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>3</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>18</v>
       </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="BB10">
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
         <v>3</v>
       </c>
-      <c r="BC10">
-        <v>1</v>
-      </c>
-      <c r="BN10">
+      <c r="BD10">
         <v>1</v>
       </c>
       <c r="BO10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BP10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43904</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ref="B11:B22" si="2">SUM(D11:BR11)</f>
+        <f t="shared" ref="B11:B22" si="3">SUM(E11:BS11)</f>
         <v>47</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:C22" si="3">(B11-B10)/B10</f>
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>68.697985957132303</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:D22" si="4">(B11-B10)/B10</f>
         <v>0.14634146341463414</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="L11">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="X11">
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
         <v>3</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>6</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>3</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>20</v>
       </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="BB11">
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
         <v>4</v>
       </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BN11">
+      <c r="BD11">
         <v>1</v>
       </c>
       <c r="BO11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43905</v>
       </c>
       <c r="B12" s="3">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="3"/>
+        <v>91.358470538283711</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="4"/>
         <v>0.34042553191489361</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="X12">
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
         <v>5</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>7</v>
       </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
       <c r="AQ12">
         <v>1</v>
       </c>
-      <c r="AV12">
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
         <v>6</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>24</v>
       </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="BB12">
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
         <v>6</v>
       </c>
-      <c r="BC12">
-        <v>1</v>
-      </c>
-      <c r="BN12">
+      <c r="BD12">
         <v>1</v>
       </c>
       <c r="BO12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BP12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43906</v>
       </c>
       <c r="B13" s="3">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="3"/>
+        <v>93.558943775861266</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
         <v>0.20634920634920634</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>5</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="X13">
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
         <v>5</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>7</v>
       </c>
-      <c r="AP13">
-        <v>1</v>
-      </c>
       <c r="AQ13">
         <v>1</v>
       </c>
-      <c r="AV13">
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
         <v>8</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>30</v>
       </c>
-      <c r="AY13">
-        <v>1</v>
-      </c>
-      <c r="BB13">
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
         <v>8</v>
       </c>
-      <c r="BC13">
-        <v>1</v>
-      </c>
-      <c r="BN13">
+      <c r="BD13">
         <v>1</v>
       </c>
       <c r="BO13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BP13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43907</v>
       </c>
       <c r="B14" s="3">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="3"/>
+        <v>121.91784425603015</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
         <v>0.26315789473684209</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="L14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>8</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>4</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>10</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>9</v>
       </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
       <c r="AQ14">
         <v>1</v>
       </c>
-      <c r="AV14">
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
         <v>8</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>32</v>
       </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="BB14">
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
         <v>10</v>
       </c>
-      <c r="BC14">
-        <v>1</v>
-      </c>
-      <c r="BN14">
-        <v>2</v>
+      <c r="BD14">
+        <v>1</v>
       </c>
       <c r="BO14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43908</v>
       </c>
       <c r="B15" s="3">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="3"/>
+        <v>170.90162037037038</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="4"/>
         <v>0.38541666666666669</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="L15">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>9</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>10</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>14</v>
       </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
+      <c r="AM15">
         <v>1</v>
       </c>
       <c r="AQ15">
         <v>1</v>
       </c>
-      <c r="AV15">
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
         <v>7</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>42</v>
       </c>
-      <c r="AY15">
-        <v>1</v>
-      </c>
-      <c r="BB15">
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
         <v>17</v>
       </c>
-      <c r="BC15">
-        <v>2</v>
-      </c>
-      <c r="BN15">
+      <c r="BD15">
         <v>2</v>
       </c>
       <c r="BO15">
-        <v>1</v>
-      </c>
-      <c r="BR15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43909</v>
       </c>
       <c r="B16" s="3">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="2"/>
-        <v>185</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="3"/>
+        <v>249.10570697577276</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
         <v>0.39097744360902253</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>16</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>12</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>10</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>11</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>14</v>
       </c>
-      <c r="AL16">
-        <v>2</v>
-      </c>
       <c r="AM16">
         <v>2</v>
       </c>
-      <c r="AO16">
-        <v>1</v>
+      <c r="AN16">
+        <v>2</v>
       </c>
       <c r="AP16">
         <v>1</v>
@@ -1473,412 +1529,516 @@
       <c r="AQ16">
         <v>1</v>
       </c>
-      <c r="AV16">
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
         <v>15</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>47</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>5</v>
       </c>
-      <c r="BB16">
+      <c r="BC16">
         <v>33</v>
       </c>
-      <c r="BC16">
+      <c r="BD16">
         <v>3</v>
       </c>
-      <c r="BN16">
+      <c r="BO16">
         <v>3</v>
       </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
       <c r="BP16">
-        <v>2</v>
-      </c>
-      <c r="BR16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BQ16">
+        <v>2</v>
+      </c>
+      <c r="BS16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43910</v>
       </c>
       <c r="B17" s="3">
+        <f t="shared" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="2"/>
-        <v>268</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="3"/>
+        <v>377.43715313057419</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
         <v>0.44864864864864867</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>28</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>16</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
       <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
         <v>17</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>11</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>23</v>
       </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>4</v>
       </c>
-      <c r="AM17">
-        <v>2</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
+      <c r="AN17">
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>2</v>
       </c>
-      <c r="AV17">
+      <c r="AR17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
         <v>19</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>59</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>10</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>42</v>
       </c>
-      <c r="BC17">
-        <v>2</v>
-      </c>
       <c r="BD17">
-        <v>1</v>
-      </c>
-      <c r="BN17">
+        <v>2</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
         <v>3</v>
       </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
       <c r="BP17">
+        <v>1</v>
+      </c>
+      <c r="BQ17">
         <v>4</v>
       </c>
-      <c r="BR17">
+      <c r="BS17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43911</v>
       </c>
       <c r="B18" s="3">
+        <f t="shared" si="3"/>
+        <v>371</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="2"/>
-        <v>371</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="3"/>
+        <v>522.36236704103953</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="4"/>
         <v>0.38432835820895522</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>31</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>24</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
+      <c r="N18">
         <v>1</v>
       </c>
       <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
         <v>19</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>11</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>33</v>
       </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AL18">
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>5</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4</v>
       </c>
-      <c r="AO18">
-        <v>2</v>
-      </c>
       <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
         <v>13</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>6</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>25</v>
       </c>
-      <c r="AW18">
+      <c r="AX18">
         <v>71</v>
       </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
       <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
         <v>17</v>
       </c>
-      <c r="BB18">
+      <c r="BC18">
         <v>69</v>
       </c>
-      <c r="BC18">
-        <v>2</v>
-      </c>
       <c r="BD18">
-        <v>1</v>
-      </c>
-      <c r="BN18">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BO18">
         <v>5</v>
       </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
       <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18">
         <v>4</v>
       </c>
-      <c r="BR18">
+      <c r="BS18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43912</v>
       </c>
       <c r="B19" s="3">
         <v>479</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="3"/>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>658.47844646150759</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="4"/>
         <v>0.29110512129380056</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43913</v>
       </c>
       <c r="B20" s="3">
+        <f t="shared" si="3"/>
+        <v>644</v>
+      </c>
+      <c r="C20" s="3">
         <f t="shared" si="2"/>
-        <v>644</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="3"/>
+        <v>862.93877385044675</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="4"/>
         <v>0.3444676409185804</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>14</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>43</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>40</v>
       </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="X20">
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
         <v>12</v>
       </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
       <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
         <v>54</v>
       </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
       <c r="AC20">
         <v>1</v>
       </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AL20">
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>7</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>5</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>3</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>25</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>10</v>
       </c>
-      <c r="AT20">
-        <v>1</v>
-      </c>
-      <c r="AV20">
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
         <v>43</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>129</v>
       </c>
-      <c r="AX20">
-        <v>1</v>
-      </c>
       <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
         <v>23</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>128</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>3</v>
       </c>
-      <c r="BD20">
-        <v>1</v>
-      </c>
       <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BF20">
         <v>3</v>
       </c>
-      <c r="BN20">
+      <c r="BO20">
         <v>9</v>
       </c>
-      <c r="BO20">
+      <c r="BP20">
         <v>3</v>
       </c>
-      <c r="BP20">
+      <c r="BQ20">
         <v>6</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43914</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" si="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43915</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="e">
-        <f t="shared" si="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="S25">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="T25">
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="S26">
-        <f>S25*T26</f>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G27:G40)</f>
+        <v>-3.5037231689398376</v>
+      </c>
+      <c r="T26">
+        <f>T25*U26</f>
         <v>862.93877385044675</v>
       </c>
-      <c r="T26" s="5">
-        <f>AVERAGE(C18:C20)+1</f>
+      <c r="U26" s="5">
+        <f>AVERAGE(D18:D20)+1</f>
         <v>1.3399670401404453</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="S27">
-        <f>S26*T26</f>
+    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f>B7-C6</f>
+        <v>-5.2222222222222214</v>
+      </c>
+      <c r="T27">
+        <f>T26*U26</f>
         <v>1156.3095146188082</v>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="S28">
-        <f>S27*T26</f>
+    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" ref="G28:G44" si="5">B8-C7</f>
+        <v>-1.466666666666665</v>
+      </c>
+      <c r="T28">
+        <f>T27*U26</f>
         <v>1549.4166377899994</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="S29">
-        <f>S28*T26</f>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="T29">
+        <f>T28*U26</f>
         <v>2076.1672260838259</v>
       </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="S30">
-        <f>S29*T26</f>
+    <row r="30" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>12.338888888888889</v>
+      </c>
+      <c r="T30">
+        <f>T29*U26</f>
         <v>2781.9956527721429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>-15.483585858585847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>-5.6979859571323033</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>-15.358470538283711</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>2.4410562241387339</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>11.082155743969849</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>14.098379629629619</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f>B17-C16</f>
+        <v>18.894293024227238</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>-6.4371531305741883</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>-43.362367041039533</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>-14.478446461507588</v>
       </c>
     </row>
   </sheetData>
